--- a/Texts/Город Сокровищ/Все персонажи/Драпион.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Драпион.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -64,6 +64,108 @@
   </si>
   <si>
     <t xml:space="preserve"> Наши поиски несметных богатств\nпривели нас сюда…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, you two.[K] Do you have any\nnews on [CS:P]Zero Isle[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Zero Isle[CR]?</t>
+  </si>
+  <si>
+    <t>100, 104, 108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yeah. Rumor has it that the\ngreatest treasures are there…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But the treasures aren\'t the\nmost fascinating thing about that place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When you go in the dungeon...[K]\neveryone is temporarily dropped to Level 1 and\ntheir learned abilities are zeroed out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> From what we\'ve heard, you\ncan\'t even take in items.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Basically, you walk in alone as if\nyou\'re a rank amateur again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No exploration team\'s made it to\nthe end yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They\'re calling it the ultimate\ndungeon for good reason.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Drapion[CR]![K] You talk too much!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urk![K] I\'m sorry, my lady [CS:N]Weavile[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, вы двое.[K] Вы знаете\nчто-нибудь о [CS:P]Нуль-Острове[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Нуль-Острове[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да. Ходят слухи, что там есть\nсамые ценные сокровища...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но сокровища это не самое\nинтересное, что там есть.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если там пойти в подземелье...[K]\nУровень всей группы временно станет 1 и\nизученные способности будут обнулены.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Из того, что известно, туда\nдаже нельзя взять предметы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> По сути, вы снова становитесь\nзелёными новичками.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ещё ни одной команде\nисследователей не удалось покорить остров.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не зря эти подземелья называют\nтруднейшими.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Драпион[CR]![K] Ты слишком много\nболтаешь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух![K] Прости, моя леди [CS:N]Вивайл[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, âú äâïå.[K] Âú èîàåóå\nœóï-îéáôäû ï [CS:P]Îôìû-Ïòóñïâå[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Îôìû-Ïòóñïâå[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà. Öïäÿó òìôöé, œóï óàí åòóû\nòàíúå øåîîúå òïëñïâéþà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï òïëñïâéþà üóï îå òàíïå\néîóåñåòîïå, œóï óàí åòóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé óàí ðïêóé â ðïäèåíåìûå...[K]\nÔñïâåîû âòåê ãñôððú âñåíåîîï òóàîåó 1 é\néèôœåîîúå òðïòïáîïòóé áôäôó ïáîôìåîú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éè óïãï, œóï éèâåòóîï, óôäà\näàçå îåìûèÿ âèÿóû ðñåäíåóú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðï òôóé, âú òîïâà òóàîïâéóåòû\nèåìæîúíé îïâéœëàíé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åþæ îé ïäîïê ëïíàîäå\néòòìåäïâàóåìåê îå ôäàìïòû ðïëïñéóû ïòóñïâ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå èñÿ üóé ðïäèåíåìûÿ îàèúâàýó\nóñôäîåêšéíé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Äñàðéïî[CR]![K] Óú òìéšëïí íîïãï\náïìóàåšû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö![K] Ðñïòóé, íïÿ ìåäé [CS:N]Âéâàêì[CR].</t>
   </si>
 </sst>
 </file>
@@ -94,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,11 +228,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -145,6 +256,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,17 +609,172 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6">
         <v>196</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>85</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>117</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>120</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>123</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>129</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>132</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>135</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>144</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>167</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Драпион.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Драпион.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -166,6 +166,39 @@
   </si>
   <si>
     <t xml:space="preserve"> Ôö![K] Ðñïòóé, íïÿ ìåäé [CS:N]Âéâàêì[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Zero Isle[CR] is to the south of\nhere, across the sea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s where we\'re about to\nraid now!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The mountains of treasures and\ngold in there... We mean to have it all!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/us0107.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> К югу отсюда, за морем\nнаходится [CS:P]Нуль-Остров[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Именно туда мы и отправимся!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Там лежат горы сокровищ и\nбогатств... Мы заберём всё!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ë ýãô ïóòýäà, èà íïñåí\nîàöïäéóòÿ [CS:P]Îôìû-Ïòóñïâ[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éíåîîï óôäà íú é ïóðñàâéíòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàí ìåçàó ãïñú òïëñïâéþ é\náïãàóòóâ... Íú èàáåñæí âòæ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/us3103.ssb</t>
   </si>
 </sst>
 </file>
@@ -544,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,17 +797,67 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6">
         <v>167</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="4">
+        <v>50</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6">
+        <v>53</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Драпион.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Драпион.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -199,6 +199,48 @@
   </si>
   <si>
     <t>SCRIPT/P01P01A/us3103.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0414.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We found out [CS:P]Zero Isle[CR] is no\nordinary place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It turns out that the island has\nseveral dungeons.[K] They each put restrictions on\nexplorers in a unique way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Some places knock you down to\nLevel 1 temporarily, and another prevents you\nfrom leveling up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You may also not be allowed to\ntake items in. You\'ll be restricted in some way\nor another with those dungeons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы поняли, что [CS:P]Нуль-Остров[CR] это\nнеобычное место.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оказывается, он состоит из\nнескольких подземелий.[K] Каждое из них\nнакладывает на группу особые ограничения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Некоторые места временно\nсбрасывают Уровень до 1, а некоторые не\nдают набирать опыт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Также в некоторые места нельзя\nбрать предметы. Так или иначе, у всех\nэтих подземелий есть свой подвох.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïîÿìé, œóï [CS:P]Îôìû-Ïòóñïâ[CR] üóï\nîåïáúœîïå íåòóï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïëàèúâàåóòÿ, ïî òïòóïéó éè\nîåòëïìûëéö ðïäèåíåìéê.[K] Ëàçäïå éè îéö\nîàëìàäúâàåó îà ãñôððô ïòïáúå ïãñàîéœåîéÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåëïóïñúå íåòóà âñåíåîîï\nòáñàòúâàýó Ôñïâåîû äï 1, à îåëïóïñúå îå\näàýó îàáéñàóû ïðúó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàëçå â îåëïóïñúå íåòóà îåìûèÿ\náñàóû ðñåäíåóú. Óàë éìé éîàœå, ô âòåö\nüóéö ðïäèåíåìéê åòóû òâïê ðïäâïö.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2005.ssb</t>
   </si>
 </sst>
 </file>
@@ -577,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,6 +902,68 @@
         <v>58</v>
       </c>
     </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="4">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
